--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="园区表" sheetId="1" r:id="rId1"/>
+    <sheet name="房间表" sheetId="2" r:id="rId2"/>
+    <sheet name="管理员" sheetId="3" r:id="rId3"/>
+    <sheet name="用户表" sheetId="4" r:id="rId4"/>
+    <sheet name="订单表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="107">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +182,6 @@
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,23 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">tb_garden </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>园区表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,40 +382,6 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>tb_room</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>房间表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>tb_manage</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理员</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,12 +460,77 @@
     <t>剩余房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  PRIMARY KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(`id`)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>) ENGINE=InnoDB AUTO_INCREMENT=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 DEFAULT CHARSET=utf8;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_garden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id` int(11) NOT NULL AUTO_INCREMENT,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +605,25 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -687,17 +718,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,13 +738,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1008,141 +1041,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="66.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="M1" s="4" t="s">
+      <c r="G1" s="13" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
+        <v>CREATE TABLE `tb_garden` (</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="G3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3">
         <v>50</v>
@@ -1151,39 +1124,18 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="3">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="3">
-        <v>50</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="F4" s="14"/>
+      <c r="G4" t="str">
+        <f>CONCATENATE("`",A4,"` ",B4,"(",C4,") DEFAULT NULL COMMENT '",E4,"',")</f>
+        <v>`name` varchar(50) DEFAULT NULL COMMENT '园区名称',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -1192,39 +1144,17 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="3">
-        <v>50</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="3">
-        <v>50</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="G5" t="str">
+        <f>CONCATENATE("`",A5,"` ",B5,"(",C5,") DEFAULT NULL COMMENT '",E5,"',")</f>
+        <v>`location` varchar(50) DEFAULT NULL COMMENT '位置',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
@@ -1233,82 +1163,34 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="3">
-        <v>50</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="G6" t="str">
+        <f>CONCATENATE("`",A6,"` ",B6,"(",C6,") DEFAULT NULL COMMENT '",E6,"',")</f>
+        <v>`address` varchar(50) DEFAULT NULL COMMENT '地址',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="3">
-        <v>50</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="3">
-        <v>50</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="G7" t="str">
+        <f>CONCATENATE("`",A7,"` ",B7,C7," DEFAULT NULL COMMENT '",E7,"',")</f>
+        <v>`acreage` Float DEFAULT NULL COMMENT '面积',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3">
         <v>50</v>
@@ -1317,41 +1199,17 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="3">
-        <v>50</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="G8" t="str">
+        <f>CONCATENATE("`",A8,"` ",B8,"(",C8,") DEFAULT NULL COMMENT '",E8,"',")</f>
+        <v>`prices` varchar(50) DEFAULT NULL COMMENT '价格范围',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3">
         <v>1000</v>
@@ -1360,37 +1218,17 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="G9" t="str">
+        <f>CONCATENATE("`",A9,"` ",B9,"(",C9,") DEFAULT NULL COMMENT '",E9,"',")</f>
+        <v>`intro` varchar(1000) DEFAULT NULL COMMENT '园区简介',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3">
         <v>1000</v>
@@ -1399,691 +1237,1376 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="G10" t="str">
+        <f>CONCATENATE("`",A10,"` ",B10,"(",C10,") DEFAULT NULL COMMENT '",E10,"',")</f>
+        <v>`characteristics` varchar(1000) DEFAULT NULL COMMENT '园区特点',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3">
         <v>50</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="3">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="G11" t="str">
+        <f>CONCATENATE("`",A11,"` ",B11,"(",C11,") DEFAULT NULL COMMENT '",E11,"',")</f>
+        <v>`picture` varchar(50) DEFAULT NULL COMMENT '图片目录',</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="3">
-        <v>20</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18.75">
+        <v>90</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE("`",A12,"` ",B12,C12," DEFAULT NULL COMMENT '",E12,"',")</f>
+        <v>`Floor_ Height` Float DEFAULT NULL COMMENT '层高',</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE("`",A13,"` ",B13,"(",C13,") DEFAULT NULL COMMENT '",E13,"',")</f>
+        <v>`developer` varchar(50) DEFAULT NULL COMMENT '开发商',</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="3">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3">
         <v>50</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE("`",A14,"` ",B14,"(",C14,") DEFAULT NULL COMMENT '",E14,"',")</f>
+        <v>`property` varchar(50) DEFAULT NULL COMMENT '物业',</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="3">
-        <v>20</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="3">
-        <v>50</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>98</v>
+      </c>
+      <c r="G15" t="str">
+        <f>CONCATENATE("`",A15,"` ",B15,"(",C15,") DEFAULT NULL COMMENT '",E15,"',")</f>
+        <v>`vacant_room` int(11) DEFAULT NULL COMMENT '剩余房间',</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="3">
-        <v>50</v>
-      </c>
-      <c r="J16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16" si="0">CONCATENATE("`",A16,"` ",B16,C16," DEFAULT NULL COMMENT '",E16,"',")</f>
+        <v>`gmt_create` datetime DEFAULT NULL COMMENT '创建时间',</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="18">
+      <c r="G17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="18">
+      <c r="G18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.75">
+      <c r="A31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="C33" s="3">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="3">
-        <v>50</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="7:17">
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="3" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="3">
-        <v>50</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="7:17">
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="3">
-        <v>50</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="7:17">
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="3">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="3">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="7:17">
-      <c r="G20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" s="3">
-        <v>50</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="7:17">
-      <c r="G21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="3">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="3">
-        <v>50</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="7:17">
-      <c r="G22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="7:17">
-      <c r="G23" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="3">
-        <v>50</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="7:17">
-      <c r="M24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="7:17">
-      <c r="M25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="3">
-        <v>50</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="3">
-        <v>50</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="3">
-        <v>50</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="3">
-        <v>50</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75">
-      <c r="A46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="3">
-        <v>50</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="3">
-        <v>50</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="3">
-        <v>50</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="G1:K1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="M13:Q13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" display="javascript:;"/>
-    <hyperlink ref="G13" r:id="rId2" display="javascript:;"/>
-    <hyperlink ref="A7" r:id="rId3" display="javascript:;"/>
-    <hyperlink ref="A15" r:id="rId4" display="javascript:;"/>
+    <hyperlink ref="A7" r:id="rId1" display="javascript:;"/>
+    <hyperlink ref="A14" r:id="rId2" display="javascript:;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="13" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
+        <v>CREATE TABLE `tb_room` (</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE("`",A4,"` ",B4,"(",C4,") DEFAULT NULL COMMENT '",E4,"',")</f>
+        <v>`number` varchar(20) DEFAULT NULL COMMENT '房间号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE("`",A5,"` ",B5,"(",C5,") DEFAULT NULL COMMENT '",E5,"',")</f>
+        <v>`name` varchar(50) DEFAULT NULL COMMENT '公司名称',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE("`",A6,"` ",B6,"(",C6,") DEFAULT NULL COMMENT '",E6,"',")</f>
+        <v>`floor` int(11) DEFAULT NULL COMMENT '楼层',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="str">
+        <f>CONCATENATE("`",A7,"` ",B7,"(",C7,") DEFAULT NULL COMMENT '",E7,"',")</f>
+        <v>`intro` varchar(50) DEFAULT NULL COMMENT '简介',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="str">
+        <f>CONCATENATE("`",A8,"` ",B8,C8," DEFAULT NULL COMMENT '",E8,"',")</f>
+        <v>`total_prices` Float DEFAULT NULL COMMENT '总价',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:G10" si="0">CONCATENATE("`",A9,"` ",B9,C9," DEFAULT NULL COMMENT '",E9,"',")</f>
+        <v>`unit_prices` Float DEFAULT NULL COMMENT '单价',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>`acreage` Float DEFAULT NULL COMMENT '面积',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="str">
+        <f>CONCATENATE("`",A11,"` ",B11,"(",C11,") DEFAULT NULL COMMENT '",E11,"',")</f>
+        <v>`decorate` varchar(20) DEFAULT NULL COMMENT '装修',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE("`",A12,"` ",B12,"(",C12,") DEFAULT NULL COMMENT '",E12,"',")</f>
+        <v>`Lease_state` varchar(20) DEFAULT NULL COMMENT '租用状态',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE("`",A13,"` ",B13,"(",C13,") DEFAULT NULL COMMENT '",E13,"',")</f>
+        <v>`galleryful ` int(11) DEFAULT NULL COMMENT '工位数',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE("`",A14,"` ",B14,C14," DEFAULT NULL COMMENT '",E14,"',")</f>
+        <v>`deadline` datetime DEFAULT NULL COMMENT '租期',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="str">
+        <f>CONCATENATE("`",A15,"` ",B15,"(",C15,") DEFAULT NULL COMMENT '",E15,"',")</f>
+        <v>`map` varchar(50) DEFAULT NULL COMMENT '房型图',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE("`",A16,"` ",B16,"(",C16,") DEFAULT NULL COMMENT '",E16,"',")</f>
+        <v>`garden` varchar(50) DEFAULT NULL COMMENT '所属园区',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ref="G17:G23" si="1">CONCATENATE("`",A17,"` ",B17,C17," DEFAULT NULL COMMENT '",E17,"',")</f>
+        <v>`water_bill` Float DEFAULT NULL COMMENT '水费',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>`water_deadline` datetime DEFAULT NULL COMMENT '水费截止时间',</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>`electricity_bill` Float DEFAULT NULL COMMENT '电费',</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>`electricity_deadline` datetime DEFAULT NULL COMMENT '电费截止时间',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>`Property_costs` Float DEFAULT NULL COMMENT '物业费',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>`Property_deadline` datetime DEFAULT NULL COMMENT '物业费截止时间',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>`gmt_create` datetime DEFAULT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
+      <c r="G24" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
+      <c r="G25" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="javascript:;"/>
+    <hyperlink ref="A13" r:id="rId2" display="javascript:;"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="66.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="13" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
+        <v>CREATE TABLE `tb_manage` (</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE("`",A4,"` ",B4,"(",C4,") DEFAULT NULL COMMENT '",E4,"',")</f>
+        <v>`name` varchar(50) DEFAULT NULL COMMENT '名字',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE("`",A5,"` ",B5,"(",C5,") DEFAULT NULL COMMENT '",E5,"',")</f>
+        <v>`passwd` varchar(50) DEFAULT NULL COMMENT '密码',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE("`",A6,"` ",B6,"(",C6,") DEFAULT NULL COMMENT '",E6,"',")</f>
+        <v>`authority` varchar(50) DEFAULT NULL COMMENT '权限',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="str">
+        <f>CONCATENATE("`",A7,"` ",B7,"(",C7,") DEFAULT NULL COMMENT '",E7,"',")</f>
+        <v>`garden` varchar(50) DEFAULT NULL COMMENT '所属园区',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="str">
+        <f>CONCATENATE("`",A8,"` ",B8,C8," DEFAULT NULL COMMENT '",E8,"',")</f>
+        <v>`gmt_create` datetime DEFAULT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="G10" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="G11" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="13" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
+        <v>CREATE TABLE `tb_user用户表` (</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE("`",A4,"` ",B4,"(",C4,") DEFAULT NULL COMMENT '",E4,"',")</f>
+        <v>`name` varchar(50) DEFAULT NULL COMMENT '名字',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE("`",A5,"` ",B5,"(",C5,") DEFAULT NULL COMMENT '",E5,"',")</f>
+        <v>`passwd` varchar(50) DEFAULT NULL COMMENT '密码',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE("`",A6,"` ",B6,"(",C6,") DEFAULT NULL COMMENT '",E6,"',")</f>
+        <v>`type` varchar(50) DEFAULT NULL COMMENT '用户类型（普通，租户）',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="str">
+        <f>CONCATENATE("`",A7,"` ",B7,"(",C7,") DEFAULT NULL COMMENT '",E7,"',")</f>
+        <v>`room` varchar(50) DEFAULT NULL COMMENT '所属房间号',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="str">
+        <f>CONCATENATE("`",A8,"` ",B8,"(",C8,") DEFAULT NULL COMMENT '",E8,"',")</f>
+        <v>`garden` varchar(50) DEFAULT NULL COMMENT '所属园区',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="str">
+        <f>CONCATENATE("`",A9,"` ",B9,C9," DEFAULT NULL COMMENT '",E9,"',")</f>
+        <v>`gmt_create` datetime DEFAULT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="G10" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="G11" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="68.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="13" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
+        <v>CREATE TABLE `tb_order订单记录` (</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE("`",A4,"` ",B4,"(",C4,") DEFAULT NULL COMMENT '",E4,"',")</f>
+        <v>`number` varchar(50) DEFAULT NULL COMMENT '订单编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G13" si="0">CONCATENATE("`",A5,"` ",B5,"(",C5,") DEFAULT NULL COMMENT '",E5,"',")</f>
+        <v>`name` varchar(50) DEFAULT NULL COMMENT '用户名字',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>`room` varchar(50) DEFAULT NULL COMMENT '所属房间号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>`garden` varchar(50) DEFAULT NULL COMMENT '所属园区',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>`type` varchar(50) DEFAULT NULL COMMENT '缴费类型（水电。。。）',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>`payment_method ` varchar(50) DEFAULT NULL COMMENT '缴费方式',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="str">
+        <f>CONCATENATE("`",A10,"` ",B10,C10," DEFAULT NULL COMMENT '",E10,"',")</f>
+        <v>`payment_amount` Float DEFAULT NULL COMMENT '缴费金额',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>`state` varchar(50) DEFAULT NULL COMMENT '缴费状态',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE("`",A12,"` ",B12,C12," DEFAULT NULL COMMENT '",E12,"',")</f>
+        <v>`date` datetime DEFAULT NULL COMMENT '缴费日期',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE("`",A13,"` ",B13,C13," DEFAULT NULL COMMENT '",E13,"',")</f>
+        <v>`gmt_create` datetime DEFAULT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="G14" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="G15" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>